--- a/Assets/SDProject/DataTables/Xlsx/EnemyData.xlsx
+++ b/Assets/SDProject/DataTables/Xlsx/EnemyData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SD\SDProject\Assets\SDProject\DataTables\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2C1261-2437-4BDF-B24B-07936553F104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7382347F-9D74-4BBF-BFAF-04F4F90BD3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -183,6 +183,14 @@
   </si>
   <si>
     <t>Support</t>
+  </si>
+  <si>
+    <t>PrefabKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF_TestUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -553,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -584,7 +592,7 @@
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,8 +656,11 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -713,8 +724,11 @@
       <c r="U2" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="V2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -766,8 +780,11 @@
       <c r="T3">
         <v>1</v>
       </c>
+      <c r="V3" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -819,8 +836,11 @@
       <c r="T4">
         <v>1</v>
       </c>
+      <c r="V4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -872,8 +892,11 @@
       <c r="T5">
         <v>1</v>
       </c>
+      <c r="V5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -925,8 +948,11 @@
       <c r="T6">
         <v>1</v>
       </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -977,6 +1003,9 @@
       </c>
       <c r="T7">
         <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
